--- a/FBG_Needle_Calibration_Data/needle_3CH_4AA/Jig_Calibration_08-05-20/08-05-20_JigCalibration_results_180deg.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_3CH_4AA/Jig_Calibration_08-05-20/08-05-20_JigCalibration_results_180deg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\AMIRo\FBG_Needle_Calibration_Data\needle_3CH_4AA\Jig_Calibration_08-05-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D4BA47-E3EC-4AA5-8674-F71783EEAA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C79D2C7-74F2-4C35-B327-E928B1F357FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="1470" windowWidth="23610" windowHeight="12930" xr2:uid="{CAC25A53-9E65-49F7-973B-C9FEADB2C5CC}"/>
   </bookViews>
@@ -143,10 +143,10 @@
     <t>CH3 | AA4</t>
   </si>
   <si>
-    <t>AA$</t>
+    <t>Active Area 4</t>
   </si>
   <si>
-    <t>Active Area 4</t>
+    <t>AA4</t>
   </si>
 </sst>
 </file>
@@ -295,10 +295,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -19931,7 +19931,7 @@
   <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19941,35 +19941,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="G1" s="14" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="G1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="M1" s="14" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="M1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="S1" s="14" t="s">
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="S1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="Y1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="Y1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
     </row>
     <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -19984,8 +19984,8 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>33</v>
+      <c r="E2" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -20779,50 +20779,50 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="M12" s="14" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="M12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="S12" s="14" t="s">
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="S12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="Y12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="Y12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
@@ -21338,16 +21338,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="G11:V11"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="G11:V11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
